--- a/data/outputs/OR_altmetric/1.xlsx
+++ b/data/outputs/OR_altmetric/1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE83"/>
+  <dimension ref="A1:CF83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1031,6 +1036,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1288,6 +1296,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1531,6 +1542,9 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1774,6 +1788,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2023,6 +2040,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2272,6 +2292,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2521,6 +2544,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2766,6 +2792,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3015,6 +3044,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3264,6 +3296,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3510,6 +3545,9 @@
       </c>
       <c r="CE12" t="n">
         <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -3752,6 +3790,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4005,6 +4046,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4252,6 +4296,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4495,6 +4542,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4748,6 +4798,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4997,6 +5050,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5250,6 +5306,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5507,6 +5566,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5756,6 +5818,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6005,6 +6070,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6258,6 +6326,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6507,6 +6578,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6752,6 +6826,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7001,6 +7078,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7248,6 +7328,9 @@
         <v>0</v>
       </c>
       <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7491,6 +7574,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7738,6 +7824,9 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7981,6 +8070,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8234,6 +8326,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8483,6 +8578,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8734,6 +8832,9 @@
         <v>0</v>
       </c>
       <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8977,6 +9078,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9214,6 +9318,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9455,6 +9562,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9716,6 +9826,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9965,6 +10078,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10214,6 +10330,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10461,6 +10580,9 @@
         <v>0</v>
       </c>
       <c r="CE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10704,6 +10826,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10945,6 +11070,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11186,6 +11314,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11435,6 +11566,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11684,6 +11818,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11937,6 +12074,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12186,6 +12326,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12440,6 +12583,9 @@
       </c>
       <c r="CE48" t="n">
         <v>0</v>
+      </c>
+      <c r="CF48" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="49">
@@ -12682,6 +12828,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12933,6 +13082,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13182,6 +13334,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13431,6 +13586,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13680,6 +13838,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13929,6 +14090,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14176,6 +14340,9 @@
         <v>0</v>
       </c>
       <c r="CE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14419,6 +14586,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14670,6 +14840,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14929,6 +15102,9 @@
         <v>0</v>
       </c>
       <c r="CE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15184,6 +15360,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15442,6 +15621,9 @@
       </c>
       <c r="CE60" t="n">
         <v>0</v>
+      </c>
+      <c r="CF60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -15696,6 +15878,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15955,6 +16140,9 @@
         <v>0</v>
       </c>
       <c r="CE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16198,6 +16386,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16447,6 +16638,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16700,6 +16894,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16947,6 +17144,9 @@
         <v>0</v>
       </c>
       <c r="CE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17188,6 +17388,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17437,6 +17640,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17694,6 +17900,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17943,6 +18152,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18194,6 +18406,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18439,6 +18654,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18684,6 +18902,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18937,6 +19158,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19184,6 +19408,9 @@
         <v>0</v>
       </c>
       <c r="CE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19429,6 +19656,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19674,6 +19904,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19931,6 +20164,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20182,6 +20418,9 @@
         <v>0</v>
       </c>
       <c r="CE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20425,6 +20664,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20670,6 +20912,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20915,6 +21160,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21164,6 +21412,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
